--- a/raw data used/live births/livebirthsbymonthsexandladsept2018toaug2019ew.xlsx
+++ b/raw data used/live births/livebirthsbymonthsexandladsept2018toaug2019ew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/raw data used/live births/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD8CD83-2CED-364E-B9C0-B43C66C2F379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F7BB3-3F23-BD41-B009-AE2CF4DF4E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="840" windowWidth="23740" windowHeight="14280" xr2:uid="{50A4D291-D77B-411A-80E0-4F22A0F182D7}"/>
   </bookViews>
@@ -3943,7 +3943,7 @@
   <dimension ref="A1:O386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3986,7 +3986,7 @@
         <v>43556</v>
       </c>
       <c r="K1" s="13">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="L1" s="13">
         <v>43617</v>
@@ -21336,6 +21336,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
+        </TermInfo>
+      </Terms>
+    </o5359087ad404c199aee74686ab194d3>
+    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
+    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-16501</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-16501</Url>
+      <Description>D5PZWENCX5VS-1990262282-16501</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -21440,7 +21467,62 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21662,89 +21744,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A017-E269-4C49-ABAB-80C1D418A415}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
-        </TermInfo>
-      </Terms>
-    </o5359087ad404c199aee74686ab194d3>
-    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
-    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-16501</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-16501</Url>
-      <Description>D5PZWENCX5VS-1990262282-16501</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4E837C6-610E-4804-B52B-DB619F42D0E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -21752,7 +21771,39 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{041103E6-67CB-4A22-B427-021C8F42EDAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C2B012-1727-4482-9A92-9FAFF79701A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B045826-BBE4-4033-85D8-59313962D704}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77562A53-0076-42E8-8155-C35D3753E87D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD1EF2DC-ED5F-44FD-89BA-8C27BEBBC3DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21771,55 +21822,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77562A53-0076-42E8-8155-C35D3753E87D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B045826-BBE4-4033-85D8-59313962D704}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29C2B012-1727-4482-9A92-9FAFF79701A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{041103E6-67CB-4A22-B427-021C8F42EDAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C229A017-E269-4C49-ABAB-80C1D418A415}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>